--- a/Reference/pinout.xlsx
+++ b/Reference/pinout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew\Documents\GitHub\buttonBox\Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewd\Documents\GitHub\buttonBox\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{912D5695-E5E0-4864-8FF8-3E36E6441CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C9E6DB-CC76-482B-8E63-9A04443A3E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="11835" xr2:uid="{52D6E8A3-AEE4-4EFF-A70E-B0B3F144ADFE}"/>
+    <workbookView xWindow="9840" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{52D6E8A3-AEE4-4EFF-A70E-B0B3F144ADFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,20 +27,125 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>switch count</t>
+  </si>
+  <si>
+    <t>encoder pins</t>
+  </si>
+  <si>
+    <t>teensy pins</t>
+  </si>
+  <si>
+    <t>EN1_CLK</t>
+  </si>
+  <si>
+    <t>EN1_DAT</t>
+  </si>
+  <si>
+    <t>EN2_CLK</t>
+  </si>
+  <si>
+    <t>EN2_DAT</t>
+  </si>
+  <si>
+    <t>backside</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,8 +171,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,14 +490,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7BDD59-6943-4889-82B6-03FF7D258401}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6">
+        <f>COUNTA(A2:A16,D2:D9)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8">
+        <f>SUM(I6:I7)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Reference/pinout.xlsx
+++ b/Reference/pinout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewd\Documents\GitHub\buttonBox\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C9E6DB-CC76-482B-8E63-9A04443A3E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9231815-E73D-4811-BAD2-30D2964238DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{52D6E8A3-AEE4-4EFF-A70E-B0B3F144ADFE}"/>
+    <workbookView xWindow="4710" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{52D6E8A3-AEE4-4EFF-A70E-B0B3F144ADFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>T1</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>EN3_CLK</t>
+  </si>
+  <si>
+    <t>EN3_DAT</t>
   </si>
 </sst>
 </file>
@@ -493,7 +499,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +727,9 @@
       <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E15" s="1">
         <v>28</v>
       </c>
@@ -733,7 +741,9 @@
       <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E16" s="1">
         <v>29</v>
       </c>

--- a/Reference/pinout.xlsx
+++ b/Reference/pinout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewd\Documents\GitHub\buttonBox\Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew\Documents\GitHub\buttonBox\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9231815-E73D-4811-BAD2-30D2964238DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDD383D-5679-4579-8B4C-63EBC1AAD7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{52D6E8A3-AEE4-4EFF-A70E-B0B3F144ADFE}"/>
+    <workbookView xWindow="5985" yWindow="3735" windowWidth="21600" windowHeight="11835" xr2:uid="{52D6E8A3-AEE4-4EFF-A70E-B0B3F144ADFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>T1</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>EN3_DAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START </t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +659,9 @@
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E10" s="1">
         <v>23</v>
       </c>
